--- a/tugas_akhir_kelompok/apgTugasAkhirKelompok4_2022/Indeks Demokrasi Indonesia (IDI) Menurut Aspek dan Provinsi.xlsx
+++ b/tugas_akhir_kelompok/apgTugasAkhirKelompok4_2022/Indeks Demokrasi Indonesia (IDI) Menurut Aspek dan Provinsi.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="19815" windowHeight="7695"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjPCFk28cz8S5pZOs2Uzq8RaZwwCg=="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1078,53 +1076,687 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1314,17 +1946,22 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:J2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1343,7 +1980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1369,7 +2006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1401,7 +2038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1433,7 +2070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1465,7 +2102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1497,7 +2134,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1529,7 +2166,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
@@ -1561,7 +2198,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
@@ -1593,7 +2230,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>78</v>
       </c>
@@ -1625,7 +2262,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
@@ -1657,7 +2294,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
@@ -1689,7 +2326,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>107</v>
       </c>
@@ -1721,7 +2358,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>117</v>
       </c>
@@ -1753,7 +2390,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>126</v>
       </c>
@@ -1785,7 +2422,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>136</v>
       </c>
@@ -1817,7 +2454,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>146</v>
       </c>
@@ -1849,7 +2486,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>156</v>
       </c>
@@ -1881,7 +2518,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>166</v>
       </c>
@@ -1913,7 +2550,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>174</v>
       </c>
@@ -1945,7 +2582,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>184</v>
       </c>
@@ -1977,7 +2614,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>194</v>
       </c>
@@ -2009,7 +2646,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>204</v>
       </c>
@@ -2041,7 +2678,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>214</v>
       </c>
@@ -2073,7 +2710,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>224</v>
       </c>
@@ -2105,7 +2742,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>233</v>
       </c>
@@ -2137,7 +2774,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>243</v>
       </c>
@@ -2169,7 +2806,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" ht="15.75" customHeight="1" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>253</v>
       </c>
@@ -2201,7 +2838,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>263</v>
       </c>
@@ -2233,7 +2870,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" ht="15.75" customHeight="1" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>273</v>
       </c>
@@ -2265,7 +2902,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>282</v>
       </c>
@@ -2297,7 +2934,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" ht="15.75" customHeight="1" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>292</v>
       </c>
@@ -2329,7 +2966,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" ht="15.75" customHeight="1" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>302</v>
       </c>
@@ -2361,7 +2998,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" ht="15.75" customHeight="1" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>311</v>
       </c>
@@ -2393,7 +3030,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" ht="15.75" customHeight="1" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>321</v>
       </c>
@@ -2425,7 +3062,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" ht="15.75" customHeight="1" spans="1:10">
       <c r="A37" s="1" t="s">
         <v>331</v>
       </c>
@@ -2457,7 +3094,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" ht="15.75" customHeight="1" spans="1:10">
       <c r="A38" s="1" t="s">
         <v>341</v>
       </c>
@@ -2490,17 +3127,17 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" ht="15.75" customHeight="1" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" ht="15.75" customHeight="1" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" ht="15.75" customHeight="1" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>351</v>
       </c>
@@ -3465,16 +4102,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="A39:J39"/>
     <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A1:A3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>